--- a/카테고리화_빈도분석_top50_0708_추가.xlsx
+++ b/카테고리화_빈도분석_top50_0708_추가.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JY SEO\Desktop\빅데이터전문가\일동제약실습관련\비오비타프로젝트\유튜브\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\le\Desktop\hanaseo\git\ildong_team\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19497C81-AB96-48B2-9790-B06E6A92EB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12170" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="카테고리별" sheetId="1" r:id="rId1"/>
@@ -21,10 +22,19 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">카테고리별!$B$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -793,7 +803,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4784,22 +4794,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.1796875" customWidth="1"/>
-    <col min="4" max="4" width="9.90625" customWidth="1"/>
-    <col min="5" max="5" width="26.26953125" customWidth="1"/>
-    <col min="6" max="6" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="5" max="5" width="26.21875" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4819,7 +4829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4839,7 +4849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4859,7 +4869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4879,7 +4889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4899,7 +4909,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4919,7 +4929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4939,7 +4949,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4959,7 +4969,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4979,7 +4989,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4999,7 +5009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -5019,7 +5029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5039,7 +5049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -5059,7 +5069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5079,7 +5089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -5099,7 +5109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5119,7 +5129,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -5139,7 +5149,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5159,7 +5169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -5179,7 +5189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5199,7 +5209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -5219,7 +5229,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5239,7 +5249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -5259,7 +5269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5279,7 +5289,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -5299,7 +5309,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5319,7 +5329,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -5339,7 +5349,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5359,7 +5369,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -5379,7 +5389,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5399,7 +5409,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5419,7 +5429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5439,7 +5449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5459,7 +5469,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5479,7 +5489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5499,7 +5509,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5519,7 +5529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5539,7 +5549,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5559,7 +5569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -5579,7 +5589,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5599,7 +5609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -5619,7 +5629,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5639,7 +5649,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -5659,7 +5669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5679,7 +5689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -5699,7 +5709,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5719,7 +5729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -5739,7 +5749,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5759,7 +5769,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -5779,7 +5789,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5799,7 +5809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -5819,7 +5829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="C52">
         <f>SUM(C2:C51)</f>
@@ -5832,13 +5842,13 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="D53" s="3"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>64</v>
       </c>
@@ -5858,7 +5868,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>1</v>
       </c>
@@ -5878,7 +5888,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>2</v>
       </c>
@@ -5898,7 +5908,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>3</v>
       </c>
@@ -5915,7 +5925,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>4</v>
       </c>
@@ -5935,7 +5945,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>5</v>
       </c>
@@ -5955,7 +5965,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>6</v>
       </c>
@@ -5975,7 +5985,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>7</v>
       </c>
@@ -5995,7 +6005,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>8</v>
       </c>
@@ -6013,7 +6023,7 @@
       </c>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>9</v>
       </c>
@@ -6031,7 +6041,7 @@
       </c>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>10</v>
       </c>
@@ -6051,7 +6061,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>11</v>
       </c>
@@ -6071,7 +6081,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>12</v>
       </c>
@@ -6088,7 +6098,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>13</v>
       </c>
@@ -6108,7 +6118,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>14</v>
       </c>
@@ -6128,7 +6138,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>15</v>
       </c>
@@ -6148,7 +6158,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>16</v>
       </c>
@@ -6168,7 +6178,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>17</v>
       </c>
@@ -6188,7 +6198,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>18</v>
       </c>
@@ -6205,7 +6215,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>19</v>
       </c>
@@ -6225,7 +6235,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>20</v>
       </c>
@@ -6245,7 +6255,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>21</v>
       </c>
@@ -6262,7 +6272,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="C76">
         <f>SUM(C55:C75)</f>
@@ -6274,12 +6284,12 @@
       </c>
       <c r="E76" s="4"/>
     </row>
-    <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="D77" s="3"/>
       <c r="E77" s="4"/>
     </row>
-    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>64</v>
       </c>
@@ -6299,7 +6309,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1</v>
       </c>
@@ -6316,7 +6326,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2</v>
       </c>
@@ -6333,7 +6343,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>3</v>
       </c>
@@ -6350,7 +6360,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>4</v>
       </c>
@@ -6367,7 +6377,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>5</v>
       </c>
@@ -6384,7 +6394,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>6</v>
       </c>
@@ -6402,7 +6412,7 @@
       </c>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>7</v>
       </c>
@@ -6420,7 +6430,7 @@
       </c>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>8</v>
       </c>
@@ -6438,7 +6448,7 @@
       </c>
       <c r="F86" s="4"/>
     </row>
-    <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>9</v>
       </c>
@@ -6455,7 +6465,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>10</v>
       </c>
@@ -6473,7 +6483,7 @@
       </c>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>11</v>
       </c>
@@ -6491,7 +6501,7 @@
       </c>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>12</v>
       </c>
@@ -6509,7 +6519,7 @@
       </c>
       <c r="F90" s="4"/>
     </row>
-    <row r="91" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>13</v>
       </c>
@@ -6527,7 +6537,7 @@
       </c>
       <c r="F91" s="4"/>
     </row>
-    <row r="92" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>14</v>
       </c>
@@ -6544,7 +6554,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>15</v>
       </c>
@@ -6561,7 +6571,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>16</v>
       </c>
@@ -6578,7 +6588,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>17</v>
       </c>
@@ -6595,7 +6605,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>18</v>
       </c>
@@ -6613,7 +6623,7 @@
       </c>
       <c r="F96" s="4"/>
     </row>
-    <row r="97" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>19</v>
       </c>
@@ -6630,7 +6640,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>20</v>
       </c>
@@ -6647,7 +6657,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>21</v>
       </c>
@@ -6665,7 +6675,7 @@
       </c>
       <c r="F99" s="4"/>
     </row>
-    <row r="100" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>22</v>
       </c>
@@ -6682,7 +6692,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>23</v>
       </c>
@@ -6700,7 +6710,7 @@
       </c>
       <c r="F101" s="4"/>
     </row>
-    <row r="102" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>24</v>
       </c>
@@ -6718,7 +6728,7 @@
       </c>
       <c r="F102" s="4"/>
     </row>
-    <row r="103" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="C103">
         <f>SUM(C79:C102)</f>
         <v>1040</v>
@@ -6730,12 +6740,12 @@
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
     </row>
-    <row r="104" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="D104" s="3"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
     </row>
-    <row r="105" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>64</v>
       </c>
@@ -6755,7 +6765,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1</v>
       </c>
@@ -6776,7 +6786,7 @@
         <v>배송</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>2</v>
       </c>
@@ -6797,7 +6807,7 @@
         <v>구매</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>3</v>
       </c>
@@ -6818,7 +6828,7 @@
         <v>배송</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>4</v>
       </c>
@@ -6839,7 +6849,7 @@
         <v>구매</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>5</v>
       </c>
@@ -6860,7 +6870,7 @@
         <v>배송</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>6</v>
       </c>
@@ -6881,7 +6891,7 @@
         <v>배송</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>7</v>
       </c>
@@ -6902,7 +6912,7 @@
         <v>배송</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>8</v>
       </c>
@@ -6923,7 +6933,7 @@
         <v>배송</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>9</v>
       </c>
@@ -6944,7 +6954,7 @@
         <v>배송</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>10</v>
       </c>
@@ -6965,7 +6975,7 @@
         <v>배송</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>11</v>
       </c>
@@ -6986,7 +6996,7 @@
         <v>구매</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>12</v>
       </c>
@@ -7007,7 +7017,7 @@
         <v>배송</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>13</v>
       </c>
@@ -7028,7 +7038,7 @@
         <v>배송</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>14</v>
       </c>
@@ -7049,7 +7059,7 @@
         <v>구매</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>15</v>
       </c>
@@ -7070,7 +7080,7 @@
         <v>배송</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>16</v>
       </c>
@@ -7091,7 +7101,7 @@
         <v>구매</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>17</v>
       </c>
@@ -7112,7 +7122,7 @@
         <v>배송</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>18</v>
       </c>
@@ -7133,7 +7143,7 @@
         <v>배송</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>19</v>
       </c>
@@ -7154,7 +7164,7 @@
         <v>배송</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>20</v>
       </c>
@@ -7175,7 +7185,7 @@
         <v>배송</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>21</v>
       </c>
@@ -7196,7 +7206,7 @@
         <v>구매</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>22</v>
       </c>
@@ -7217,7 +7227,7 @@
         <v>배송</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>23</v>
       </c>
@@ -7238,7 +7248,7 @@
         <v>배송</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>24</v>
       </c>
@@ -7259,7 +7269,7 @@
         <v>배송</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>25</v>
       </c>
@@ -7280,7 +7290,7 @@
         <v>배송</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>26</v>
       </c>
@@ -7301,7 +7311,7 @@
         <v>배송</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>27</v>
       </c>
@@ -7322,7 +7332,7 @@
         <v>배송</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>28</v>
       </c>
@@ -7343,7 +7353,7 @@
         <v>구매</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>29</v>
       </c>
@@ -7364,7 +7374,7 @@
         <v>구매</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>30</v>
       </c>
@@ -7385,7 +7395,7 @@
         <v>배송</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>31</v>
       </c>
@@ -7406,7 +7416,7 @@
         <v>구매</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>32</v>
       </c>
@@ -7427,7 +7437,7 @@
         <v>배송</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>33</v>
       </c>
@@ -7448,7 +7458,7 @@
         <v>배송</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>34</v>
       </c>
@@ -7469,7 +7479,7 @@
         <v>구매</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>35</v>
       </c>
@@ -7490,7 +7500,7 @@
         <v>배송</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>36</v>
       </c>
@@ -7511,7 +7521,7 @@
         <v>배송</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>37</v>
       </c>
@@ -7532,7 +7542,7 @@
         <v>배송</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>38</v>
       </c>
@@ -7553,7 +7563,7 @@
         <v>배송</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>39</v>
       </c>
@@ -7574,7 +7584,7 @@
         <v>구매</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>40</v>
       </c>
@@ -7595,7 +7605,7 @@
         <v>배송</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>41</v>
       </c>
@@ -7616,7 +7626,7 @@
         <v>배송</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>42</v>
       </c>
@@ -7637,7 +7647,7 @@
         <v>배송</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>43</v>
       </c>
@@ -7658,7 +7668,7 @@
         <v>구매</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>44</v>
       </c>
@@ -7679,7 +7689,7 @@
         <v>구매</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>45</v>
       </c>
@@ -7700,7 +7710,7 @@
         <v>배송</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>46</v>
       </c>
@@ -7721,7 +7731,7 @@
         <v>배송</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>47</v>
       </c>
@@ -7742,7 +7752,7 @@
         <v>배송</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>48</v>
       </c>
@@ -7763,7 +7773,7 @@
         <v>배송</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>49</v>
       </c>
@@ -7784,7 +7794,7 @@
         <v>배송</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>50</v>
       </c>
@@ -7805,7 +7815,7 @@
         <v>구매</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="C156">
         <f>SUM(C106:C155)</f>
         <v>1242</v>
@@ -7817,12 +7827,12 @@
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
     </row>
-    <row r="157" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="D157" s="3"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
     </row>
-    <row r="158" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>0</v>
       </c>
@@ -7842,7 +7852,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1</v>
       </c>
@@ -7859,7 +7869,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>2</v>
       </c>
@@ -7876,7 +7886,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>3</v>
       </c>
@@ -7893,7 +7903,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>4</v>
       </c>
@@ -7911,7 +7921,7 @@
       </c>
       <c r="F162" s="4"/>
     </row>
-    <row r="163" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>5</v>
       </c>
@@ -7928,7 +7938,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>6</v>
       </c>
@@ -7945,7 +7955,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>7</v>
       </c>
@@ -7962,7 +7972,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>8</v>
       </c>
@@ -7979,7 +7989,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>9</v>
       </c>
@@ -7996,7 +8006,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>10</v>
       </c>
@@ -8013,7 +8023,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>11</v>
       </c>
@@ -8030,7 +8040,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>12</v>
       </c>
@@ -8047,7 +8057,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>13</v>
       </c>
@@ -8064,7 +8074,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>14</v>
       </c>
@@ -8081,7 +8091,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>15</v>
       </c>
@@ -8098,7 +8108,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="C174">
         <f>SUM(C159:C173)</f>
         <v>522</v>
@@ -8109,11 +8119,11 @@
       </c>
       <c r="E174" s="4"/>
     </row>
-    <row r="175" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="D175" s="3"/>
       <c r="E175" s="4"/>
     </row>
-    <row r="176" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>0</v>
       </c>
@@ -8133,7 +8143,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="177" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:6" ht="15" x14ac:dyDescent="0.3">
       <c r="B177" t="s">
         <v>188</v>
       </c>
@@ -8148,7 +8158,7 @@
       </c>
       <c r="F177" s="4"/>
     </row>
-    <row r="178" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:6" ht="15" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
         <v>190</v>
       </c>
@@ -8162,7 +8172,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="179" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:6" ht="15" x14ac:dyDescent="0.3">
       <c r="B179" t="s">
         <v>192</v>
       </c>
@@ -8177,7 +8187,7 @@
       </c>
       <c r="F179" s="4"/>
     </row>
-    <row r="180" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:6" ht="15" x14ac:dyDescent="0.3">
       <c r="B180" t="s">
         <v>193</v>
       </c>
@@ -8192,7 +8202,7 @@
       </c>
       <c r="F180" s="4"/>
     </row>
-    <row r="181" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:6" ht="15" x14ac:dyDescent="0.3">
       <c r="B181" t="s">
         <v>194</v>
       </c>
@@ -8207,7 +8217,7 @@
       </c>
       <c r="F181" s="4"/>
     </row>
-    <row r="182" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:6" ht="15" x14ac:dyDescent="0.3">
       <c r="B182" t="s">
         <v>195</v>
       </c>
@@ -8222,7 +8232,7 @@
       </c>
       <c r="F182" s="4"/>
     </row>
-    <row r="183" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:6" ht="15" x14ac:dyDescent="0.3">
       <c r="B183" t="s">
         <v>196</v>
       </c>
@@ -8237,7 +8247,7 @@
       </c>
       <c r="F183" s="4"/>
     </row>
-    <row r="184" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:6" ht="15" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
         <v>197</v>
       </c>
@@ -8251,7 +8261,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="185" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:6" ht="15" x14ac:dyDescent="0.3">
       <c r="B185" t="s">
         <v>198</v>
       </c>
@@ -8266,7 +8276,7 @@
       </c>
       <c r="F185" s="4"/>
     </row>
-    <row r="186" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:6" ht="15" x14ac:dyDescent="0.3">
       <c r="B186" t="s">
         <v>200</v>
       </c>
@@ -8281,7 +8291,7 @@
       </c>
       <c r="F186" s="4"/>
     </row>
-    <row r="187" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:6" ht="15" x14ac:dyDescent="0.3">
       <c r="B187" t="s">
         <v>201</v>
       </c>
@@ -8295,7 +8305,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="188" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:6" ht="15" x14ac:dyDescent="0.3">
       <c r="B188" t="s">
         <v>202</v>
       </c>
@@ -8309,7 +8319,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="189" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:6" ht="15" x14ac:dyDescent="0.3">
       <c r="B189" t="s">
         <v>203</v>
       </c>
@@ -8323,7 +8333,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C190">
         <f>SUM(C177:C189)</f>
         <v>152</v>
@@ -8342,17 +8352,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="8.7265625" style="5"/>
+    <col min="4" max="4" width="8.77734375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>212</v>
       </c>
@@ -8373,7 +8385,7 @@
       </c>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8393,7 +8405,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8413,7 +8425,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8433,7 +8445,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8453,7 +8465,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8473,7 +8485,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8493,7 +8505,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8513,7 +8525,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8533,7 +8545,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8553,7 +8565,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8573,7 +8585,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8593,7 +8605,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8613,7 +8625,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8633,7 +8645,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8653,7 +8665,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8673,7 +8685,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C17">
         <f>SUM(C2:C16)</f>
         <v>395</v>
@@ -8683,7 +8695,7 @@
         <v>5.1782905086536012E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>212</v>
       </c>
@@ -8704,7 +8716,7 @@
       </c>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -8724,7 +8736,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -8744,7 +8756,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3</v>
       </c>
@@ -8764,7 +8776,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>4</v>
       </c>
@@ -8784,7 +8796,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>5</v>
       </c>
@@ -8804,7 +8816,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>6</v>
       </c>
@@ -8824,7 +8836,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>7</v>
       </c>
@@ -8844,7 +8856,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>8</v>
       </c>
@@ -8864,7 +8876,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>9</v>
       </c>
@@ -8884,7 +8896,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>10</v>
       </c>
@@ -8904,7 +8916,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>11</v>
       </c>
@@ -8924,7 +8936,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>12</v>
       </c>
@@ -8944,7 +8956,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>13</v>
       </c>
@@ -8964,7 +8976,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>14</v>
       </c>
@@ -8984,7 +8996,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>15</v>
       </c>
@@ -9004,7 +9016,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>16</v>
       </c>
@@ -9024,7 +9036,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>17</v>
       </c>
@@ -9044,7 +9056,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>18</v>
       </c>
@@ -9064,7 +9076,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>19</v>
       </c>
@@ -9084,7 +9096,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>20</v>
       </c>
@@ -9104,7 +9116,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>21</v>
       </c>
@@ -9124,7 +9136,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>22</v>
       </c>
@@ -9144,7 +9156,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>23</v>
       </c>
@@ -9164,7 +9176,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>24</v>
       </c>
@@ -9184,7 +9196,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>25</v>
       </c>
@@ -9204,7 +9216,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>26</v>
       </c>
@@ -9224,7 +9236,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>27</v>
       </c>
@@ -9244,7 +9256,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>28</v>
       </c>
@@ -9264,7 +9276,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>29</v>
       </c>
@@ -9284,7 +9296,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>30</v>
       </c>
@@ -9304,7 +9316,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>31</v>
       </c>
@@ -9324,7 +9336,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>32</v>
       </c>
@@ -9344,7 +9356,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>33</v>
       </c>
@@ -9364,7 +9376,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>34</v>
       </c>
@@ -9384,7 +9396,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>35</v>
       </c>
@@ -9404,7 +9416,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>36</v>
       </c>
@@ -9424,7 +9436,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>37</v>
       </c>
@@ -9444,7 +9456,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>38</v>
       </c>
@@ -9464,7 +9476,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>39</v>
       </c>
@@ -9484,7 +9496,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>40</v>
       </c>
@@ -9504,7 +9516,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>41</v>
       </c>
@@ -9524,7 +9536,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>42</v>
       </c>
@@ -9544,7 +9556,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>43</v>
       </c>
@@ -9564,7 +9576,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>44</v>
       </c>
@@ -9584,7 +9596,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>45</v>
       </c>
@@ -9604,7 +9616,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>46</v>
       </c>
@@ -9624,7 +9636,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>47</v>
       </c>
@@ -9644,7 +9656,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>48</v>
       </c>
@@ -9664,7 +9676,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>49</v>
       </c>
@@ -9684,7 +9696,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>50</v>
       </c>
@@ -9704,7 +9716,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>51</v>
       </c>
@@ -9724,7 +9736,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>52</v>
       </c>
@@ -9744,7 +9756,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>53</v>
       </c>
@@ -9764,7 +9776,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>54</v>
       </c>
@@ -9784,7 +9796,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>55</v>
       </c>
@@ -9804,7 +9816,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>56</v>
       </c>
@@ -9824,7 +9836,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>57</v>
       </c>
@@ -9844,7 +9856,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>58</v>
       </c>
